--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3815,12 +3815,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5951,12 +5951,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6027,12 +6027,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6521,12 +6521,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6981,12 +6981,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7213,12 +7213,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7631,12 +7631,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7673,12 +7673,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7787,12 +7787,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7825,12 +7825,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7901,12 +7901,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8015,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9201,12 +9201,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9627,12 +9627,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9779,12 +9779,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9817,12 +9817,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10615,12 +10615,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11531,12 +11531,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11759,12 +11759,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12911,12 +12911,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13101,12 +13101,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13177,12 +13177,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13941,12 +13941,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14017,12 +14017,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14093,12 +14093,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14245,12 +14245,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14397,12 +14397,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14853,12 +14853,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14967,12 +14967,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15955,12 +15955,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16145,12 +16145,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16639,12 +16639,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16829,12 +16829,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17209,12 +17209,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17285,12 +17285,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17361,12 +17361,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17549,12 +17549,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17663,12 +17663,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17891,12 +17891,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
